--- a/ig/ch-epr-fhir/ValueSet-DocumentAuditEventType.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-DocumentAuditEventType.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
